--- a/DataRepo/data/examples/obob_fasted/study.xlsx
+++ b/DataRepo/data/examples/obob_fasted/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/examplesv3/obob_fasted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/examples/obob_fasted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D79BC49-FE9E-6540-AD38-35C79CBA9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150497CE-8932-1545-9347-7C27D2CB74D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="11500" windowWidth="34300" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="4680" windowWidth="34300" windowHeight="22580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="318">
   <si>
     <t>Name</t>
   </si>
@@ -1305,36 +1305,15 @@
     <t>demo_982</t>
   </si>
   <si>
-    <t>demo_exp024c_M5</t>
-  </si>
-  <si>
-    <t>demo_exp024c_M3</t>
-  </si>
-  <si>
-    <t>demo_exp024c_M4</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M1</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2</t>
-  </si>
-  <si>
     <t>WT</t>
   </si>
   <si>
     <t>ob/ob</t>
   </si>
   <si>
-    <t>C57/bl6</t>
-  </si>
-  <si>
     <t>Fasted</t>
   </si>
   <si>
-    <t>fasted</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -1671,78 +1650,6 @@
     <t>demo_serum-xz979</t>
   </si>
   <si>
-    <t>demo_exp024c_16</t>
-  </si>
-  <si>
-    <t>demo_exp024c_17</t>
-  </si>
-  <si>
-    <t>demo_exp024c_18</t>
-  </si>
-  <si>
-    <t>demo_exp024c_19</t>
-  </si>
-  <si>
-    <t>demo_exp024c_20</t>
-  </si>
-  <si>
-    <t>demo_exp024c_26</t>
-  </si>
-  <si>
-    <t>demo_exp024c_27</t>
-  </si>
-  <si>
-    <t>demo_exp024c_28</t>
-  </si>
-  <si>
-    <t>demo_exp024c_29</t>
-  </si>
-  <si>
-    <t>demo_exp024c_30</t>
-  </si>
-  <si>
-    <t>demo_exp024c_31</t>
-  </si>
-  <si>
-    <t>demo_exp024c_32</t>
-  </si>
-  <si>
-    <t>demo_exp024c_33</t>
-  </si>
-  <si>
-    <t>demo_exp024c_34</t>
-  </si>
-  <si>
-    <t>demo_exp024c_35</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M1_0</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M1_1dot5</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M1_10</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M1_30</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2_0</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2_1dot5</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2_3</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2_10</t>
-  </si>
-  <si>
-    <t>demo_exp024f_M2_30</t>
-  </si>
-  <si>
     <t>2020-11-18</t>
   </si>
   <si>
@@ -1755,12 +1662,6 @@
     <t>2020-12-04</t>
   </si>
   <si>
-    <t>2017-03-21</t>
-  </si>
-  <si>
-    <t>2018-03-21</t>
-  </si>
-  <si>
     <t>2021-04-21</t>
   </si>
   <si>
@@ -1876,12 +1777,6 @@
   </si>
   <si>
     <t>Common Samples</t>
-  </si>
-  <si>
-    <t>control vehicle for T3 via drinking water</t>
-  </si>
-  <si>
-    <t>T3 via drinking water</t>
   </si>
   <si>
     <t>obob_maven_6eaas_inf.xlsx</t>
@@ -2230,7 +2125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3356,17 +3251,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3374,15 +3269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3410,9 +3305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -3423,7 +3320,7 @@
     <col min="7" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3446,7 +3343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3466,7 +3363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3486,7 +3383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3506,121 +3403,121 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
@@ -3663,7 +3560,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -3672,7 +3569,7 @@
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3689,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3703,7 +3600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3717,7 +3614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3731,7 +3628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3745,121 +3642,121 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
@@ -3910,13 +3807,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -3931,7 +3828,7 @@
     <col min="11" max="11" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3966,12 +3863,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>27.2</v>
@@ -3983,18 +3880,18 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>26.8</v>
@@ -4006,18 +3903,18 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>26.3</v>
@@ -4029,18 +3926,18 @@
         <v>0.11</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>25.6</v>
@@ -4052,18 +3949,18 @@
         <v>0.12</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>53.6</v>
@@ -4075,18 +3972,18 @@
         <v>0.37</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>48.8</v>
@@ -4098,18 +3995,18 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>50.2</v>
@@ -4121,140 +4018,10 @@
         <v>0.06</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>27.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>28.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11">
-        <v>26.3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>0.3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>26.2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>0.3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>237</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13">
-        <v>0.3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>238</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4294,19 +4061,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C32" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C27" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"F,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D32" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"C57BL/6,C57BL/6J,THMYCN (het),WT,WT C57BL/6N with Flank KPC tumor,alb-/-,ob/ob"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H2:H32" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H2:H27" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Keto diet bioserv S3666,LabDiet #5053,LabDiet 5001,LabDiet 5010,LabDiet Rodent 5001,PicoLab Rodent 20 5053,PicoLab Rodent 20 5054,PicoLab Rodent 20 5055,PicoLab Rodent 20 5056,TestDiet 5B62_Ser/Gly-Free,..."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I2:I32" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I2:I27" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"fasted,fed,refed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J2:J32" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J2:J27" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4319,13 +4086,13 @@
           <x14:formula1>
             <xm:f>Study!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K32</xm:sqref>
+          <xm:sqref>K2:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Infusates!$E$2:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F32</xm:sqref>
+          <xm:sqref>F2:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4335,11 +4102,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -4349,38 +4118,38 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -4389,18 +4158,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -4409,18 +4178,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -4429,18 +4198,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -4449,18 +4218,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -4469,18 +4238,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -4489,18 +4258,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -4509,18 +4278,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -4529,18 +4298,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -4549,18 +4318,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -4569,18 +4338,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -4589,18 +4358,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -4609,18 +4378,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>150</v>
@@ -4629,18 +4398,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>150</v>
@@ -4649,18 +4418,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E16">
         <v>150</v>
@@ -4669,18 +4438,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -4689,18 +4458,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E18">
         <v>150</v>
@@ -4709,18 +4478,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -4729,18 +4498,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>150</v>
@@ -4749,18 +4518,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E21">
         <v>150</v>
@@ -4769,18 +4538,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E22">
         <v>150</v>
@@ -4789,18 +4558,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E23">
         <v>150</v>
@@ -4809,18 +4578,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E24">
         <v>150</v>
@@ -4829,18 +4598,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E25">
         <v>150</v>
@@ -4849,18 +4618,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E26">
         <v>150</v>
@@ -4869,18 +4638,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E27">
         <v>150</v>
@@ -4889,18 +4658,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E28">
         <v>150</v>
@@ -4909,18 +4678,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E29">
         <v>150</v>
@@ -4929,18 +4698,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E30">
         <v>150</v>
@@ -4949,18 +4718,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E31">
         <v>150</v>
@@ -4969,18 +4738,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E32">
         <v>150</v>
@@ -4989,18 +4758,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E33">
         <v>150</v>
@@ -5009,18 +4778,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E34">
         <v>150</v>
@@ -5029,18 +4798,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E35">
         <v>150</v>
@@ -5049,18 +4818,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E36">
         <v>150</v>
@@ -5069,18 +4838,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <v>150</v>
@@ -5089,18 +4858,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E38">
         <v>150</v>
@@ -5109,18 +4878,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E39">
         <v>150</v>
@@ -5129,18 +4898,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -5149,18 +4918,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E41">
         <v>150</v>
@@ -5169,18 +4938,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E42">
         <v>150</v>
@@ -5189,18 +4958,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -5209,18 +4978,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E44">
         <v>150</v>
@@ -5229,18 +4998,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E45">
         <v>150</v>
@@ -5249,18 +5018,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E46">
         <v>150</v>
@@ -5269,18 +5038,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E47">
         <v>150</v>
@@ -5289,18 +5058,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E48">
         <v>150</v>
@@ -5309,18 +5078,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E49">
         <v>150</v>
@@ -5329,18 +5098,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -5349,18 +5118,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -5369,18 +5138,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E52">
         <v>150</v>
@@ -5389,18 +5158,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E53">
         <v>150</v>
@@ -5409,18 +5178,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E54">
         <v>150</v>
@@ -5429,18 +5198,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E55">
         <v>150</v>
@@ -5449,18 +5218,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E56">
         <v>150</v>
@@ -5469,18 +5238,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E57">
         <v>150</v>
@@ -5489,18 +5258,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E58">
         <v>150</v>
@@ -5509,18 +5278,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E59">
         <v>150</v>
@@ -5529,18 +5298,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E60">
         <v>150</v>
@@ -5549,18 +5318,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>150</v>
@@ -5569,18 +5338,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E62">
         <v>150</v>
@@ -5589,18 +5358,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E63">
         <v>150</v>
@@ -5609,18 +5378,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E64">
         <v>150</v>
@@ -5629,18 +5398,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E65">
         <v>150</v>
@@ -5649,18 +5418,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E66">
         <v>150</v>
@@ -5669,18 +5438,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E67">
         <v>150</v>
@@ -5689,18 +5458,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E68">
         <v>150</v>
@@ -5709,18 +5478,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E69">
         <v>150</v>
@@ -5729,18 +5498,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E70">
         <v>150</v>
@@ -5749,18 +5518,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E71">
         <v>150</v>
@@ -5769,18 +5538,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E72">
         <v>150</v>
@@ -5789,18 +5558,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E73">
         <v>150</v>
@@ -5809,18 +5578,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E74">
         <v>150</v>
@@ -5829,18 +5598,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E75">
         <v>150</v>
@@ -5849,18 +5618,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E76">
         <v>150</v>
@@ -5869,18 +5638,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E77">
         <v>150</v>
@@ -5889,18 +5658,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E78">
         <v>150</v>
@@ -5909,18 +5678,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E79">
         <v>150</v>
@@ -5929,18 +5698,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E80">
         <v>150</v>
@@ -5949,18 +5718,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E81">
         <v>150</v>
@@ -5969,18 +5738,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E82">
         <v>150</v>
@@ -5989,18 +5758,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E83">
         <v>150</v>
@@ -6009,18 +5778,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E84">
         <v>150</v>
@@ -6029,18 +5798,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E85">
         <v>150</v>
@@ -6049,18 +5818,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E86">
         <v>150</v>
@@ -6069,18 +5838,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E87">
         <v>150</v>
@@ -6089,18 +5858,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E88">
         <v>150</v>
@@ -6109,18 +5878,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E89">
         <v>150</v>
@@ -6129,18 +5898,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E90">
         <v>150</v>
@@ -6149,18 +5918,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E91">
         <v>150</v>
@@ -6169,18 +5938,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E92">
         <v>150</v>
@@ -6189,18 +5958,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E93">
         <v>150</v>
@@ -6209,18 +5978,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E94">
         <v>150</v>
@@ -6229,18 +5998,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E95">
         <v>150</v>
@@ -6249,18 +6018,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E96">
         <v>150</v>
@@ -6269,18 +6038,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E97">
         <v>150</v>
@@ -6289,18 +6058,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E98">
         <v>150</v>
@@ -6309,18 +6078,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E99">
         <v>150</v>
@@ -6329,18 +6098,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E100">
         <v>150</v>
@@ -6349,18 +6118,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E101">
         <v>150</v>
@@ -6369,18 +6138,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
         <v>162</v>
       </c>
-      <c r="B102" t="s">
-        <v>193</v>
-      </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E102">
         <v>150</v>
@@ -6389,18 +6158,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E103">
         <v>150</v>
@@ -6409,18 +6178,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" t="s">
-        <v>195</v>
-      </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E104">
         <v>150</v>
@@ -6429,18 +6198,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E105">
         <v>150</v>
@@ -6449,18 +6218,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E106">
         <v>150</v>
@@ -6469,504 +6238,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E107">
         <v>150</v>
       </c>
       <c r="F107" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" t="s">
-        <v>200</v>
-      </c>
-      <c r="D108" t="s">
-        <v>215</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>200</v>
-      </c>
-      <c r="D109" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109">
-        <v>1.5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>170</v>
-      </c>
-      <c r="B110" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" t="s">
-        <v>200</v>
-      </c>
-      <c r="D110" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="F110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" t="s">
-        <v>200</v>
-      </c>
-      <c r="D111" t="s">
-        <v>215</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>200</v>
-      </c>
-      <c r="D112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E112">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" t="s">
-        <v>200</v>
-      </c>
-      <c r="D113" t="s">
-        <v>215</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>174</v>
-      </c>
-      <c r="B114" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" t="s">
-        <v>200</v>
-      </c>
-      <c r="D114" t="s">
-        <v>215</v>
-      </c>
-      <c r="E114">
-        <v>1.5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" t="s">
-        <v>200</v>
-      </c>
-      <c r="D115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>176</v>
-      </c>
-      <c r="B116" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" t="s">
-        <v>200</v>
-      </c>
-      <c r="D116" t="s">
-        <v>215</v>
-      </c>
-      <c r="E116">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>177</v>
-      </c>
-      <c r="B117" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" t="s">
-        <v>200</v>
-      </c>
-      <c r="D117" t="s">
-        <v>215</v>
-      </c>
-      <c r="E117">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>178</v>
-      </c>
-      <c r="B118" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D118" t="s">
-        <v>215</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>179</v>
-      </c>
-      <c r="B119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" t="s">
-        <v>200</v>
-      </c>
-      <c r="D119" t="s">
-        <v>215</v>
-      </c>
-      <c r="E119">
-        <v>1.5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>180</v>
-      </c>
-      <c r="B120" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" t="s">
-        <v>200</v>
-      </c>
-      <c r="D120" t="s">
-        <v>215</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>181</v>
-      </c>
-      <c r="B121" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121" t="s">
-        <v>200</v>
-      </c>
-      <c r="D121" t="s">
-        <v>215</v>
-      </c>
-      <c r="E121">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>182</v>
-      </c>
-      <c r="B122" t="s">
-        <v>197</v>
-      </c>
-      <c r="C122" t="s">
-        <v>200</v>
-      </c>
-      <c r="D122" t="s">
-        <v>215</v>
-      </c>
-      <c r="E122">
-        <v>30</v>
-      </c>
-      <c r="F122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>183</v>
-      </c>
-      <c r="B123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C123" t="s">
-        <v>200</v>
-      </c>
-      <c r="D123" t="s">
-        <v>215</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>184</v>
-      </c>
-      <c r="B124" t="s">
-        <v>198</v>
-      </c>
-      <c r="C124" t="s">
-        <v>200</v>
-      </c>
-      <c r="D124" t="s">
-        <v>215</v>
-      </c>
-      <c r="E124">
-        <v>1.5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>185</v>
-      </c>
-      <c r="B125" t="s">
-        <v>198</v>
-      </c>
-      <c r="C125" t="s">
-        <v>200</v>
-      </c>
-      <c r="D125" t="s">
-        <v>215</v>
-      </c>
-      <c r="E125">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>186</v>
-      </c>
-      <c r="B126" t="s">
-        <v>198</v>
-      </c>
-      <c r="C126" t="s">
-        <v>200</v>
-      </c>
-      <c r="D126" t="s">
-        <v>215</v>
-      </c>
-      <c r="E126">
-        <v>30</v>
-      </c>
-      <c r="F126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" t="s">
-        <v>200</v>
-      </c>
-      <c r="D127" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>188</v>
-      </c>
-      <c r="B128" t="s">
-        <v>198</v>
-      </c>
-      <c r="C128" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128">
-        <v>1.5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>189</v>
-      </c>
-      <c r="B129" t="s">
-        <v>198</v>
-      </c>
-      <c r="C129" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129" t="s">
-        <v>215</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>190</v>
-      </c>
-      <c r="B130" t="s">
-        <v>198</v>
-      </c>
-      <c r="C130" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" t="s">
-        <v>215</v>
-      </c>
-      <c r="E130">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" t="s">
-        <v>198</v>
-      </c>
-      <c r="C131" t="s">
-        <v>200</v>
-      </c>
-      <c r="D131" t="s">
-        <v>215</v>
-      </c>
-      <c r="E131">
-        <v>30</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6986,10 +6275,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C150" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C126" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Asael Roichman,Caroline Bartman,Connor Jankowski,Lingfan Liang,Marc Bornstein,Matthew McBride,Michael Neinast,Sheng Hui,Tara TeSlaa,Won Dong Lee,Xianfeng Zeng,Zhaoyue Zhang,Zihong Chen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D150" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D126" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7000,9 +6289,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
-            <xm:f>Animals!$A$2:$A$32</xm:f>
+            <xm:f>Animals!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F150</xm:sqref>
+          <xm:sqref>F2:F126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7015,10 +6304,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -7028,165 +6317,165 @@
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A3" ca="1" si="0">IF(OR(NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),NOT(ISBLANK(INDIRECT("E" &amp; ROW()))),),_xlfn.TEXTJOIN(", ", FALSE, INDIRECT("B" &amp; ROW()), INDIRECT("C" &amp; ROW()), INDIRECT("D" &amp; ROW()), IF(ISBLANK(INDIRECT("E" &amp; ROW())),"",TEXT(INDIRECT("E" &amp; ROW()),"yyyy-mm-dd"))),"")</f>
         <v>Michael Neinast, unknown, unknown, 2020-12-04</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Michael Neinast, unknown, unknown, 2021-04-21</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A21" ca="1" si="1">IF(OR(NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),NOT(ISBLANK(INDIRECT("E" &amp; ROW()))),),_xlfn.TEXTJOIN(", ", FALSE, INDIRECT("B" &amp; ROW()), INDIRECT("C" &amp; ROW()), INDIRECT("D" &amp; ROW()), IF(ISBLANK(INDIRECT("E" &amp; ROW())),"",TEXT(INDIRECT("E" &amp; ROW()),"yyyy-mm-dd"))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -7229,69 +6518,69 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7336,11 +6625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -7350,1508 +6639,1508 @@
     <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
         <v>246</v>
       </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
         <v>247</v>
       </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
         <v>248</v>
       </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
         <v>249</v>
       </c>
-      <c r="D5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
         <v>251</v>
       </c>
-      <c r="D7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
         <v>252</v>
       </c>
-      <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
         <v>253</v>
       </c>
-      <c r="D9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
         <v>254</v>
       </c>
-      <c r="D10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
         <v>255</v>
       </c>
-      <c r="D11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
         <v>256</v>
       </c>
-      <c r="D12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
         <v>257</v>
       </c>
-      <c r="D13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
         <v>258</v>
       </c>
-      <c r="D14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
         <v>259</v>
       </c>
-      <c r="D15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
         <v>260</v>
       </c>
-      <c r="D16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="D51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>138</v>
       </c>
-      <c r="B17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>152</v>
       </c>
-      <c r="B18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B57" t="s">
         <v>266</v>
       </c>
-      <c r="D22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
         <v>267</v>
       </c>
-      <c r="D23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B62" t="s">
         <v>271</v>
       </c>
-      <c r="D27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="D62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B65" t="s">
         <v>274</v>
       </c>
-      <c r="D30" t="s">
-        <v>239</v>
-      </c>
-      <c r="E30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
         <v>275</v>
       </c>
-      <c r="D31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
         <v>276</v>
       </c>
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
         <v>277</v>
       </c>
-      <c r="D33" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
         <v>278</v>
       </c>
-      <c r="D34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
         <v>279</v>
       </c>
-      <c r="D35" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
         <v>280</v>
       </c>
-      <c r="D36" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
         <v>281</v>
       </c>
-      <c r="D37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
         <v>282</v>
       </c>
-      <c r="D38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
         <v>283</v>
       </c>
-      <c r="D39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" t="s">
+        <v>209</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>305</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>158</v>
       </c>
-      <c r="B42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" t="s">
-        <v>291</v>
-      </c>
-      <c r="D47" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="B105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>160</v>
       </c>
-      <c r="B48" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" t="s">
-        <v>300</v>
-      </c>
-      <c r="D56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>301</v>
-      </c>
-      <c r="D57" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" t="s">
-        <v>242</v>
-      </c>
-      <c r="E59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>304</v>
-      </c>
-      <c r="D60" t="s">
-        <v>242</v>
-      </c>
-      <c r="E60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" t="s">
-        <v>306</v>
-      </c>
-      <c r="D62" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D63" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>313</v>
-      </c>
-      <c r="D69" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" t="s">
-        <v>314</v>
-      </c>
-      <c r="D70" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>315</v>
-      </c>
-      <c r="D71" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="B107" t="s">
         <v>316</v>
       </c>
-      <c r="D72" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>317</v>
-      </c>
-      <c r="D73" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>318</v>
-      </c>
-      <c r="D74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" t="s">
-        <v>320</v>
-      </c>
-      <c r="D76" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" t="s">
-        <v>322</v>
-      </c>
-      <c r="D78" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" t="s">
-        <v>323</v>
-      </c>
-      <c r="D79" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>324</v>
-      </c>
-      <c r="D80" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="s">
-        <v>325</v>
-      </c>
-      <c r="D81" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" t="s">
-        <v>327</v>
-      </c>
-      <c r="D83" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" t="s">
-        <v>328</v>
-      </c>
-      <c r="D84" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" t="s">
-        <v>329</v>
-      </c>
-      <c r="D85" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" t="s">
-        <v>330</v>
-      </c>
-      <c r="D86" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>331</v>
-      </c>
-      <c r="D87" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" t="s">
-        <v>332</v>
-      </c>
-      <c r="D88" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" t="s">
-        <v>333</v>
-      </c>
-      <c r="D89" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>77</v>
-      </c>
-      <c r="B90" t="s">
-        <v>334</v>
-      </c>
-      <c r="D90" t="s">
-        <v>244</v>
-      </c>
-      <c r="E90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" t="s">
-        <v>335</v>
-      </c>
-      <c r="D91" t="s">
-        <v>244</v>
-      </c>
-      <c r="E91" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" t="s">
-        <v>336</v>
-      </c>
-      <c r="D92" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" t="s">
-        <v>337</v>
-      </c>
-      <c r="D93" t="s">
-        <v>244</v>
-      </c>
-      <c r="E93" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D94" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" t="s">
-        <v>339</v>
-      </c>
-      <c r="D95" t="s">
-        <v>244</v>
-      </c>
-      <c r="E95" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" t="s">
-        <v>340</v>
-      </c>
-      <c r="D96" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>341</v>
-      </c>
-      <c r="D97" t="s">
-        <v>244</v>
-      </c>
-      <c r="E97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" t="s">
-        <v>342</v>
-      </c>
-      <c r="D98" t="s">
-        <v>244</v>
-      </c>
-      <c r="E98" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" t="s">
-        <v>343</v>
-      </c>
-      <c r="D99" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" t="s">
-        <v>344</v>
-      </c>
-      <c r="D100" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" t="s">
-        <v>345</v>
-      </c>
-      <c r="D101" t="s">
-        <v>244</v>
-      </c>
-      <c r="E101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" t="s">
-        <v>346</v>
-      </c>
-      <c r="D102" t="s">
-        <v>244</v>
-      </c>
-      <c r="E102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" t="s">
-        <v>347</v>
-      </c>
-      <c r="D103" t="s">
-        <v>244</v>
-      </c>
-      <c r="E103" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" t="s">
-        <v>245</v>
-      </c>
-      <c r="E105" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" t="s">
-        <v>350</v>
-      </c>
-      <c r="D106" t="s">
-        <v>245</v>
-      </c>
-      <c r="E106" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" t="s">
-        <v>351</v>
-      </c>
       <c r="D107" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8882,7 +8171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
@@ -8891,21 +8180,21 @@
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
